--- a/final_data_pipeline/output/311224longform_elec_options.xlsx
+++ b/final_data_pipeline/output/311224longform_elec_options.xlsx
@@ -735,7 +735,7 @@
         <v>87</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -750,10 +750,10 @@
         <v>1290639.050312052</v>
       </c>
       <c r="R2">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="S2">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="T2">
         <v>161.3298812890064</v>
@@ -788,7 +788,7 @@
         <v>87</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -803,10 +803,10 @@
         <v>1699222.622824276</v>
       </c>
       <c r="R3">
-        <v>1.741590909090909</v>
+        <v>1.620655622136059</v>
       </c>
       <c r="S3">
-        <v>1.89075</v>
+        <v>1.747323835194455</v>
       </c>
       <c r="T3">
         <v>212.4028278530345</v>
@@ -894,7 +894,7 @@
         <v>87</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L5">
         <v>8000</v>
@@ -909,10 +909,10 @@
         <v>353355.3409251557</v>
       </c>
       <c r="R5">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="S5">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="T5">
         <v>44.16941761564447</v>
@@ -1000,7 +1000,7 @@
         <v>87</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -1015,10 +1015,10 @@
         <v>981773.3387304785</v>
       </c>
       <c r="R7">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="S7">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="T7">
         <v>122.7216673413098</v>
@@ -1053,7 +1053,7 @@
         <v>87</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L8">
         <v>8000</v>
@@ -1068,10 +1068,10 @@
         <v>419439.6624431778</v>
       </c>
       <c r="R8">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="S8">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="T8">
         <v>52.42995780539723</v>
@@ -1106,7 +1106,7 @@
         <v>87</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L9">
         <v>8000</v>
@@ -1121,10 +1121,10 @@
         <v>1076997.406245252</v>
       </c>
       <c r="R9">
-        <v>1.741590909090909</v>
+        <v>1.803394296576035</v>
       </c>
       <c r="S9">
-        <v>1.89075</v>
+        <v>1.964819060413116</v>
       </c>
       <c r="T9">
         <v>134.6246757806565</v>
@@ -1212,7 +1212,7 @@
         <v>87</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L11">
         <v>8000</v>
@@ -1227,10 +1227,10 @@
         <v>445451.2421278559</v>
       </c>
       <c r="R11">
-        <v>1.741590909090909</v>
+        <v>1.620655622136059</v>
       </c>
       <c r="S11">
-        <v>1.89075</v>
+        <v>1.747323835194455</v>
       </c>
       <c r="T11">
         <v>55.68140526598199</v>
@@ -1365,7 +1365,7 @@
         <v>87</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>16.97685185185183</v>
       </c>
       <c r="L14">
         <v>8000</v>
@@ -1380,10 +1380,10 @@
         <v>466423.2930743959</v>
       </c>
       <c r="R14">
-        <v>1.741590909090909</v>
+        <v>1.859533546038736</v>
       </c>
       <c r="S14">
-        <v>1.89075</v>
+        <v>2.032558602498382</v>
       </c>
       <c r="T14">
         <v>58.30291163429948</v>
@@ -1418,7 +1418,7 @@
         <v>87</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="L15">
         <v>8000</v>
@@ -1433,10 +1433,10 @@
         <v>678092.7995180225</v>
       </c>
       <c r="R15">
-        <v>1.741590909090909</v>
+        <v>1.546865537736907</v>
       </c>
       <c r="S15">
-        <v>1.89075</v>
+        <v>1.660778333536659</v>
       </c>
       <c r="T15">
         <v>84.76159993975281</v>
@@ -1577,7 +1577,7 @@
         <v>87</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L18">
         <v>8000</v>
@@ -1592,10 +1592,10 @@
         <v>536365.7758239276</v>
       </c>
       <c r="R18">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="S18">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="T18">
         <v>67.04572197799095</v>
@@ -1630,7 +1630,7 @@
         <v>87</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L19">
         <v>8000</v>
@@ -1645,10 +1645,10 @@
         <v>917813.4031196755</v>
       </c>
       <c r="R19">
-        <v>1.741590909090909</v>
+        <v>1.672603071948262</v>
       </c>
       <c r="S19">
-        <v>1.89075</v>
+        <v>1.808689105403011</v>
       </c>
       <c r="T19">
         <v>114.7266753899594</v>
@@ -1736,7 +1736,7 @@
         <v>87</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L21">
         <v>8000</v>
@@ -1751,10 +1751,10 @@
         <v>429860.7724820906</v>
       </c>
       <c r="R21">
-        <v>1.741590909090909</v>
+        <v>1.600162412993039</v>
       </c>
       <c r="S21">
-        <v>1.89075</v>
+        <v>1.723215189873418</v>
       </c>
       <c r="T21">
         <v>53.73259656026133</v>
@@ -1789,7 +1789,7 @@
         <v>87</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L22">
         <v>8000</v>
@@ -1804,10 +1804,10 @@
         <v>942642.7811614531</v>
       </c>
       <c r="R22">
-        <v>1.741590909090909</v>
+        <v>1.620655622136059</v>
       </c>
       <c r="S22">
-        <v>1.89075</v>
+        <v>1.747323835194455</v>
       </c>
       <c r="T22">
         <v>117.8303476451816</v>
@@ -1842,7 +1842,7 @@
         <v>87</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L23">
         <v>8000</v>
@@ -1857,10 +1857,10 @@
         <v>491251.1649361285</v>
       </c>
       <c r="R23">
-        <v>1.741590909090909</v>
+        <v>1.798225615362447</v>
       </c>
       <c r="S23">
-        <v>1.89075</v>
+        <v>1.958604378795604</v>
       </c>
       <c r="T23">
         <v>61.40639561701607</v>
@@ -1895,7 +1895,7 @@
         <v>87</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L24">
         <v>8000</v>
@@ -1910,10 +1910,10 @@
         <v>1247352.041344643</v>
       </c>
       <c r="R24">
-        <v>1.741590909090909</v>
+        <v>1.911855479578636</v>
       </c>
       <c r="S24">
-        <v>1.89075</v>
+        <v>2.09608909874769</v>
       </c>
       <c r="T24">
         <v>155.9190051680804</v>
@@ -2107,7 +2107,7 @@
         <v>87</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L28">
         <v>8000</v>
@@ -2122,10 +2122,10 @@
         <v>384834.4080788534</v>
       </c>
       <c r="R28">
-        <v>1.741590909090909</v>
+        <v>1.940636870984383</v>
       </c>
       <c r="S28">
-        <v>1.89075</v>
+        <v>2.131200751448103</v>
       </c>
       <c r="T28">
         <v>48.10430100985668</v>
@@ -2160,7 +2160,7 @@
         <v>87</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L29">
         <v>8000</v>
@@ -2175,10 +2175,10 @@
         <v>763843.0858607751</v>
       </c>
       <c r="R29">
-        <v>1.741590909090909</v>
+        <v>1.620655622136059</v>
       </c>
       <c r="S29">
-        <v>1.89075</v>
+        <v>1.747323835194455</v>
       </c>
       <c r="T29">
         <v>95.48038573259689</v>
@@ -2266,7 +2266,7 @@
         <v>89</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L31">
         <v>8000</v>
@@ -2313,7 +2313,7 @@
         <v>87</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L32">
         <v>8000</v>
@@ -2328,10 +2328,10 @@
         <v>1253385.688345612</v>
       </c>
       <c r="R32">
-        <v>1.741590909090909</v>
+        <v>1.784922174701128</v>
       </c>
       <c r="S32">
-        <v>1.89075</v>
+        <v>1.942625691911729</v>
       </c>
       <c r="T32">
         <v>156.6732110432015</v>
@@ -2366,7 +2366,7 @@
         <v>87</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L33">
         <v>8000</v>
@@ -2381,10 +2381,10 @@
         <v>345779.7776501709</v>
       </c>
       <c r="R33">
-        <v>1.741590909090909</v>
+        <v>1.909121107266436</v>
       </c>
       <c r="S33">
-        <v>1.89075</v>
+        <v>2.092759415833974</v>
       </c>
       <c r="T33">
         <v>43.22247220627136</v>
@@ -2419,7 +2419,7 @@
         <v>87</v>
       </c>
       <c r="K34">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L34">
         <v>8000</v>
@@ -2434,10 +2434,10 @@
         <v>963519.942765158</v>
       </c>
       <c r="R34">
-        <v>1.741590909090909</v>
+        <v>1.940636870984383</v>
       </c>
       <c r="S34">
-        <v>1.89075</v>
+        <v>2.131200751448103</v>
       </c>
       <c r="T34">
         <v>120.4399928456448</v>
@@ -2472,7 +2472,7 @@
         <v>87</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L35">
         <v>8000</v>
@@ -2487,10 +2487,10 @@
         <v>681992.29965452</v>
       </c>
       <c r="R35">
-        <v>1.741590909090909</v>
+        <v>1.790685487585954</v>
       </c>
       <c r="S35">
-        <v>1.89075</v>
+        <v>1.94954496878686</v>
       </c>
       <c r="T35">
         <v>85.249037456815</v>
@@ -2525,7 +2525,7 @@
         <v>89</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L36">
         <v>8000</v>
@@ -2572,7 +2572,7 @@
         <v>87</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L37">
         <v>8000</v>
@@ -2587,10 +2587,10 @@
         <v>1168309.054993405</v>
       </c>
       <c r="R37">
-        <v>1.741590909090909</v>
+        <v>1.908284719500103</v>
       </c>
       <c r="S37">
-        <v>1.89075</v>
+        <v>2.091741145739967</v>
       </c>
       <c r="T37">
         <v>146.0386318741756</v>
@@ -2678,7 +2678,7 @@
         <v>87</v>
       </c>
       <c r="K39">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L39">
         <v>8000</v>
@@ -2693,10 +2693,10 @@
         <v>1062080.940457618</v>
       </c>
       <c r="R39">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="S39">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="T39">
         <v>132.7601175572023</v>
@@ -2731,7 +2731,7 @@
         <v>87</v>
       </c>
       <c r="K40">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L40">
         <v>8000</v>
@@ -2746,10 +2746,10 @@
         <v>912490.5628406557</v>
       </c>
       <c r="R40">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="S40">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="T40">
         <v>114.061320355082</v>
@@ -2784,7 +2784,7 @@
         <v>87</v>
       </c>
       <c r="K41">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L41">
         <v>8000</v>
@@ -2799,10 +2799,10 @@
         <v>816241.1394252041</v>
       </c>
       <c r="R41">
-        <v>1.741590909090909</v>
+        <v>1.8239809580482</v>
       </c>
       <c r="S41">
-        <v>1.89075</v>
+        <v>1.989608681354817</v>
       </c>
       <c r="T41">
         <v>102.0301424281505</v>
@@ -2837,7 +2837,7 @@
         <v>87</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L42">
         <v>8000</v>
@@ -2852,10 +2852,10 @@
         <v>725609.7675775918</v>
       </c>
       <c r="R42">
-        <v>1.741590909090909</v>
+        <v>1.798225615362447</v>
       </c>
       <c r="S42">
-        <v>1.89075</v>
+        <v>1.958604378795604</v>
       </c>
       <c r="T42">
         <v>90.70122094719898</v>
@@ -2890,7 +2890,7 @@
         <v>89</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L43">
         <v>8000</v>
@@ -2990,7 +2990,7 @@
         <v>87</v>
       </c>
       <c r="K45">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L45">
         <v>8000</v>
@@ -3005,10 +3005,10 @@
         <v>1691584.783816095</v>
       </c>
       <c r="R45">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="S45">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="T45">
         <v>211.4480979770119</v>
@@ -3096,7 +3096,7 @@
         <v>87</v>
       </c>
       <c r="K47">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L47">
         <v>8000</v>
@@ -3111,10 +3111,10 @@
         <v>813915.3130593229</v>
       </c>
       <c r="R47">
-        <v>1.741590909090909</v>
+        <v>1.803394296576035</v>
       </c>
       <c r="S47">
-        <v>1.89075</v>
+        <v>1.964819060413116</v>
       </c>
       <c r="T47">
         <v>101.7394141324154</v>
@@ -3308,7 +3308,7 @@
         <v>87</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L51">
         <v>8000</v>
@@ -3323,10 +3323,10 @@
         <v>940461.8606503607</v>
       </c>
       <c r="R51">
-        <v>1.741590909090909</v>
+        <v>1.790685487585954</v>
       </c>
       <c r="S51">
-        <v>1.89075</v>
+        <v>1.94954496878686</v>
       </c>
       <c r="T51">
         <v>117.5577325812951</v>
@@ -3361,7 +3361,7 @@
         <v>87</v>
       </c>
       <c r="K52">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L52">
         <v>8000</v>
@@ -3376,10 +3376,10 @@
         <v>457457.2891348442</v>
       </c>
       <c r="R52">
-        <v>1.741590909090909</v>
+        <v>1.803394296576035</v>
       </c>
       <c r="S52">
-        <v>1.89075</v>
+        <v>1.964819060413116</v>
       </c>
       <c r="T52">
         <v>57.18216114185552</v>
@@ -3620,7 +3620,7 @@
         <v>87</v>
       </c>
       <c r="K57">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="L57">
         <v>8000</v>
@@ -3635,10 +3635,10 @@
         <v>549582.5057187775</v>
       </c>
       <c r="R57">
-        <v>1.741590909090909</v>
+        <v>1.672603071948262</v>
       </c>
       <c r="S57">
-        <v>1.89075</v>
+        <v>1.808689105403011</v>
       </c>
       <c r="T57">
         <v>68.69781321484719</v>
